--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -479,7 +479,7 @@
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>/iam/site-statistics</t>
+          <t>/manager/site-statistics</t>
         </is>
       </c>
       <c r="H8" s="4" t="inlineStr">
@@ -520,7 +520,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>/iam/microservice</t>
+          <t>/manager/microservice</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -561,7 +561,7 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>/iam/instance</t>
+          <t>/manager/instance</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>/iam/configuration</t>
+          <t>/manager/configuration</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -643,7 +643,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>/iam/route</t>
+          <t>/manager/route</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -684,7 +684,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>/iam/api-test</t>
+          <t>/manager/api-test</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -725,7 +725,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>/iam/api-test</t>
+          <t>/manager/api-test</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>/iam/api-overview</t>
+          <t>/manager/api-overview</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -807,7 +807,7 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>/iam/api-overview</t>
+          <t>/manager/api-overview</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
@@ -848,7 +848,7 @@
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>/iam/site-statistics</t>
+          <t>/manager/site-statistics</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -390,7 +390,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="D7:N17"/>
+  <dimension ref="D7:N13"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="H10" activeCellId="0" pane="topLeft" sqref="H10"/>
@@ -474,12 +474,12 @@
     <row customHeight="1" ht="12.8" r="8" s="3">
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>choerodon.route.iam.site-statistics</t>
+          <t>choerodon.route.microservice.micro</t>
         </is>
       </c>
       <c r="G8" s="4" t="inlineStr">
         <is>
-          <t>/manager/site-statistics</t>
+          <t>/manager/microservice</t>
         </is>
       </c>
       <c r="H8" s="4" t="inlineStr">
@@ -494,7 +494,7 @@
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>平台统计路由</t>
+          <t>微服务管理路由</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
@@ -515,12 +515,12 @@
     <row r="9">
       <c r="F9" t="inlineStr">
         <is>
-          <t>choerodon.route.microservice.micro</t>
+          <t>choerodon.route.microservice.instance-management</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>/manager/microservice</t>
+          <t>/manager/instance</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
@@ -535,7 +535,7 @@
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>微服务管理路由</t>
+          <t>实例管理路由</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
@@ -556,12 +556,12 @@
     <row r="10">
       <c r="F10" t="inlineStr">
         <is>
-          <t>choerodon.route.microservice.instance-management</t>
+          <t>choerodon.route.microservice.route-management</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>/manager/instance</t>
+          <t>/manager/route</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
@@ -576,7 +576,7 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>实例管理路由</t>
+          <t>路由管理路由</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
@@ -597,12 +597,12 @@
     <row r="11">
       <c r="F11" t="inlineStr">
         <is>
-          <t>choerodon.route.microservice.config-management</t>
+          <t>choerodon.route.microservice.api-management</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>/manager/configuration</t>
+          <t>/manager/api-test</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -617,7 +617,7 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>配置管理路由</t>
+          <t>平台接口路由</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
@@ -638,12 +638,12 @@
     <row r="12">
       <c r="F12" t="inlineStr">
         <is>
-          <t>choerodon.route.microservice.route-management</t>
+          <t>choerodon.route.statistics.api-report</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>/manager/route</t>
+          <t>/manager/api-overview</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -658,7 +658,7 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>路由管理路由</t>
+          <t>API统计路由</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -679,12 +679,12 @@
     <row r="13">
       <c r="F13" t="inlineStr">
         <is>
-          <t>choerodon.route.microservice.api-management</t>
+          <t>choerodon.route.statistics.menu-report</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>/manager/api-test</t>
+          <t>/manager/site-statistics</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -699,7 +699,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>平台接口路由</t>
+          <t>菜单分析路由</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -714,170 +714,6 @@
         <v>1</v>
       </c>
       <c r="N13" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>choerodon.route.api.api-test</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>/manager/api-test</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>manager-service</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>API测试路由</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>page</t>
-        </is>
-      </c>
-      <c r="L14" t="n">
-        <v>0</v>
-      </c>
-      <c r="M14" t="n">
-        <v>1</v>
-      </c>
-      <c r="N14" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="F15" t="inlineStr">
-        <is>
-          <t>choerodon.route.api.api-overview</t>
-        </is>
-      </c>
-      <c r="G15" t="inlineStr">
-        <is>
-          <t>/manager/api-overview</t>
-        </is>
-      </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>manager-service</t>
-        </is>
-      </c>
-      <c r="I15" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="J15" t="inlineStr">
-        <is>
-          <t>API概览路由</t>
-        </is>
-      </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>page</t>
-        </is>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>choerodon.route.statistics.api-report</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>/manager/api-overview</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>manager-service</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>API统计路由</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>page</t>
-        </is>
-      </c>
-      <c r="L16" t="n">
-        <v>0</v>
-      </c>
-      <c r="M16" t="n">
-        <v>1</v>
-      </c>
-      <c r="N16" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>choerodon.route.statistics.menu-report</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>/manager/site-statistics</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>manager-service</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>菜单分析路由</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>page</t>
-        </is>
-      </c>
-      <c r="L17" t="n">
-        <v>0</v>
-      </c>
-      <c r="M17" t="n">
-        <v>1</v>
-      </c>
-      <c r="N17" t="n">
         <v>0</v>
       </c>
     </row>
@@ -902,7 +738,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="D7:O21"/>
+  <dimension ref="D7:O15"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="1" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="O8" activeCellId="0" pane="topLeft" sqref="O8"/>
@@ -988,17 +824,17 @@
     <row customHeight="1" ht="12.8" r="8" s="3">
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>choerodon.code.iam</t>
+          <t>choerodon.code.microservice</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>平台设置</t>
+          <t>平台服务</t>
         </is>
       </c>
       <c r="H8" s="4" t="inlineStr">
         <is>
-          <t>platform settings</t>
+          <t>Site Service</t>
         </is>
       </c>
       <c r="I8" s="2" t="n"/>
@@ -1024,32 +860,32 @@
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>IAM</t>
+          <t>pages</t>
         </is>
       </c>
       <c r="O8" s="2" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="9">
       <c r="F9" t="inlineStr">
         <is>
-          <t>choerodon.code.iam.site-statistics</t>
+          <t>choerodon.code.microservice.micro</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>平台统计</t>
+          <t>微服务管理</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Site Statistics</t>
+          <t>Microservice Management</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>choerodon.route.iam.site-statistics</t>
+          <t>choerodon.route.microservice.micro</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1059,7 +895,7 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>choerodon.code.iam</t>
+          <t>choerodon.code.microservice</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
@@ -1074,39 +910,44 @@
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>timeline</t>
+          <t>microservice</t>
         </is>
       </c>
       <c r="O9" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10">
       <c r="F10" t="inlineStr">
         <is>
+          <t>choerodon.code.microservice.instance-management</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>实例管理</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Instance Management</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>choerodon.route.microservice.instance-management</t>
+        </is>
+      </c>
+      <c r="J10" t="inlineStr">
+        <is>
+          <t>manager-service</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
           <t>choerodon.code.microservice</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>平台服务</t>
-        </is>
-      </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Site Service</t>
-        </is>
-      </c>
-      <c r="J10" t="inlineStr">
-        <is>
-          <t>manager-service</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>choerodon.code.top.site</t>
-        </is>
-      </c>
       <c r="L10" t="inlineStr">
         <is>
           <t>site</t>
@@ -1114,37 +955,37 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>menu</t>
+          <t>menu_item</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>pages</t>
+          <t>instance_outline</t>
         </is>
       </c>
       <c r="O10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="11">
       <c r="F11" t="inlineStr">
         <is>
-          <t>choerodon.code.microservice.micro</t>
+          <t>choerodon.code.microservice.route-management</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>微服务管理</t>
+          <t>路由管理</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Microservice Management</t>
+          <t>Route Management</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>choerodon.route.microservice.micro</t>
+          <t>choerodon.route.microservice.route-management</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1169,32 +1010,32 @@
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>microservice</t>
+          <t>routeroutline</t>
         </is>
       </c>
       <c r="O11" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="12">
       <c r="F12" t="inlineStr">
         <is>
-          <t>choerodon.code.microservice.instance-management</t>
+          <t>choerodon.code.microservice.api-management</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>实例管理</t>
+          <t>平台接口</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>Instance Management</t>
+          <t>Api Management</t>
         </is>
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>choerodon.route.microservice.instance-management</t>
+          <t>choerodon.route.microservice.api-management</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
@@ -1219,32 +1060,27 @@
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>instance_outline</t>
+          <t>API</t>
         </is>
       </c>
       <c r="O12" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13">
       <c r="F13" t="inlineStr">
         <is>
-          <t>choerodon.code.microservice.config-management</t>
+          <t>choerodon.code.statistics</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>配置管理</t>
+          <t>平台统计</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>Config Management</t>
-        </is>
-      </c>
-      <c r="I13" t="inlineStr">
-        <is>
-          <t>choerodon.route.microservice.config-management</t>
+          <t>Site Statistics</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -1254,7 +1090,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>choerodon.code.microservice</t>
+          <t>choerodon.code.top.site</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -1264,37 +1100,37 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>menu_item</t>
+          <t>menu</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>settings_input_composite</t>
+          <t>bar_chart</t>
         </is>
       </c>
       <c r="O13" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14">
       <c r="F14" t="inlineStr">
         <is>
-          <t>choerodon.code.microservice.route-management</t>
+          <t>choerodon.code.statistics.api-report</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>路由管理</t>
+          <t>API统计</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>Route Management</t>
+          <t>Api Overview</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>choerodon.route.microservice.route-management</t>
+          <t>choerodon.route.statistics.api-report</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -1304,7 +1140,7 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>choerodon.code.microservice</t>
+          <t>choerodon.code.statistics</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
@@ -1319,32 +1155,32 @@
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>routeroutline</t>
+          <t>dashboard</t>
         </is>
       </c>
       <c r="O14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15">
       <c r="F15" t="inlineStr">
         <is>
-          <t>choerodon.code.microservice.api-management</t>
+          <t>choerodon.code.statistics.menu-report</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>平台接口</t>
+          <t>菜单分析</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Api Management</t>
+          <t>Menu Report</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>choerodon.route.microservice.api-management</t>
+          <t>choerodon.route.statistics.menu-report</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -1354,7 +1190,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>choerodon.code.microservice</t>
+          <t>choerodon.code.statistics</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -1369,300 +1205,10 @@
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t>API</t>
+          <t>timeline</t>
         </is>
       </c>
       <c r="O15" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>choerodon.code.api</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>API管理</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>API Manage</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>manager-service</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>choerodon.code.top.site</t>
-        </is>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="M16" t="inlineStr">
-        <is>
-          <t>menu</t>
-        </is>
-      </c>
-      <c r="N16" t="inlineStr">
-        <is>
-          <t>API</t>
-        </is>
-      </c>
-      <c r="O16" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="F17" t="inlineStr">
-        <is>
-          <t>choerodon.code.api.api-test</t>
-        </is>
-      </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>API测试</t>
-        </is>
-      </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>API Test</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
-        <is>
-          <t>choerodon.route.api.api-test</t>
-        </is>
-      </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>manager-service</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
-        <is>
-          <t>choerodon.code.api</t>
-        </is>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
-        <is>
-          <t>menu_item</t>
-        </is>
-      </c>
-      <c r="N17" t="inlineStr">
-        <is>
-          <t>APItest</t>
-        </is>
-      </c>
-      <c r="O17" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="F18" t="inlineStr">
-        <is>
-          <t>choerodon.code.api.api-overview</t>
-        </is>
-      </c>
-      <c r="G18" t="inlineStr">
-        <is>
-          <t>API概览</t>
-        </is>
-      </c>
-      <c r="H18" t="inlineStr">
-        <is>
-          <t>API Overview</t>
-        </is>
-      </c>
-      <c r="I18" t="inlineStr">
-        <is>
-          <t>choerodon.route.api.api-overview</t>
-        </is>
-      </c>
-      <c r="J18" t="inlineStr">
-        <is>
-          <t>manager-service</t>
-        </is>
-      </c>
-      <c r="K18" t="inlineStr">
-        <is>
-          <t>choerodon.code.api</t>
-        </is>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="M18" t="inlineStr">
-        <is>
-          <t>menu_item</t>
-        </is>
-      </c>
-      <c r="N18" t="inlineStr">
-        <is>
-          <t>dashboard</t>
-        </is>
-      </c>
-      <c r="O18" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="F19" t="inlineStr">
-        <is>
-          <t>choerodon.code.statistics</t>
-        </is>
-      </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>平台统计</t>
-        </is>
-      </c>
-      <c r="H19" t="inlineStr">
-        <is>
-          <t>Site Statistics</t>
-        </is>
-      </c>
-      <c r="J19" t="inlineStr">
-        <is>
-          <t>manager-service</t>
-        </is>
-      </c>
-      <c r="K19" t="inlineStr">
-        <is>
-          <t>choerodon.code.top.site</t>
-        </is>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="M19" t="inlineStr">
-        <is>
-          <t>menu</t>
-        </is>
-      </c>
-      <c r="N19" t="inlineStr">
-        <is>
-          <t>bar_chart</t>
-        </is>
-      </c>
-      <c r="O19" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="F20" t="inlineStr">
-        <is>
-          <t>choerodon.code.statistics.api-report</t>
-        </is>
-      </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>API统计</t>
-        </is>
-      </c>
-      <c r="H20" t="inlineStr">
-        <is>
-          <t>Api Overview</t>
-        </is>
-      </c>
-      <c r="I20" t="inlineStr">
-        <is>
-          <t>choerodon.route.statistics.api-report</t>
-        </is>
-      </c>
-      <c r="J20" t="inlineStr">
-        <is>
-          <t>manager-service</t>
-        </is>
-      </c>
-      <c r="K20" t="inlineStr">
-        <is>
-          <t>choerodon.code.statistics</t>
-        </is>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="M20" t="inlineStr">
-        <is>
-          <t>menu_item</t>
-        </is>
-      </c>
-      <c r="N20" t="inlineStr">
-        <is>
-          <t>dashboard</t>
-        </is>
-      </c>
-      <c r="O20" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>choerodon.code.statistics.menu-report</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>菜单分析</t>
-        </is>
-      </c>
-      <c r="H21" t="inlineStr">
-        <is>
-          <t>Menu Report</t>
-        </is>
-      </c>
-      <c r="I21" t="inlineStr">
-        <is>
-          <t>choerodon.route.statistics.menu-report</t>
-        </is>
-      </c>
-      <c r="J21" t="inlineStr">
-        <is>
-          <t>manager-service</t>
-        </is>
-      </c>
-      <c r="K21" t="inlineStr">
-        <is>
-          <t>choerodon.code.statistics</t>
-        </is>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>site</t>
-        </is>
-      </c>
-      <c r="M21" t="inlineStr">
-        <is>
-          <t>menu_item</t>
-        </is>
-      </c>
-      <c r="N21" t="inlineStr">
-        <is>
-          <t>timeline</t>
-        </is>
-      </c>
-      <c r="O21" t="n">
         <v>4</v>
       </c>
     </row>
@@ -1687,7 +1233,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="D7:G32"/>
+  <dimension ref="D7:G20"/>
   <sheetViews>
     <sheetView colorId="64" defaultGridColor="1" rightToLeft="0" showFormulas="0" showGridLines="1" showOutlineSymbols="1" showRowColHeaders="1" showZeros="1" tabSelected="0" topLeftCell="A1" view="normal" workbookViewId="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100">
       <selection activeCell="E25" activeCellId="0" pane="topLeft" sqref="E25"/>
@@ -1728,24 +1274,24 @@
     <row customHeight="1" ht="12.8" r="8" s="3">
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>choerodon.code.iam.site-statistics</t>
+          <t>choerodon.code.microservice.micro</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>manager-service.statistic.queryMenuClick</t>
+          <t>manager-service.service.pageManager</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="F9" t="inlineStr">
         <is>
-          <t>choerodon.code.microservice.micro</t>
+          <t>choerodon.code.microservice.instance-management</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>manager-service.service.pageManager</t>
+          <t>manager-service.instance.list</t>
         </is>
       </c>
     </row>
@@ -1757,269 +1303,125 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>manager-service.instance.list</t>
+          <t>manager-service.instance.query</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="F11" t="inlineStr">
         <is>
-          <t>choerodon.code.microservice.instance-management</t>
+          <t>choerodon.code.microservice.route-management</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>manager-service.instance.query</t>
+          <t>manager-service.route.list</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="F12" t="inlineStr">
         <is>
-          <t>choerodon.code.microservice.config-management</t>
+          <t>choerodon.code.microservice.route-management</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>manager-service.config.query</t>
+          <t>manager-service.route.create</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="F13" t="inlineStr">
         <is>
-          <t>choerodon.code.microservice.config-management</t>
+          <t>choerodon.code.microservice.route-management</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>manager-service.config.create</t>
+          <t>manager-service.route.update</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="F14" t="inlineStr">
         <is>
-          <t>choerodon.code.microservice.config-management</t>
+          <t>choerodon.code.microservice.route-management</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>manager-service.config.delete</t>
+          <t>manager-service.route.delete</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="F15" t="inlineStr">
         <is>
-          <t>choerodon.code.microservice.config-management</t>
+          <t>choerodon.code.microservice.api-management</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>manager-service.config.queryYaml</t>
+          <t>manager-service.api.queryTreeMenu</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="F16" t="inlineStr">
         <is>
-          <t>choerodon.code.microservice.config-management</t>
+          <t>choerodon.code.microservice.api-management</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>manager-service.config.updateConfig</t>
+          <t>manager-service.api.queryPathDetail</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="F17" t="inlineStr">
         <is>
-          <t>choerodon.code.microservice.config-management</t>
+          <t>choerodon.code.statistics.api-report</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>manager-service.config.updateConfigDefault</t>
+          <t>manager-service.api.queryInstancesAndApiCount</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="F18" t="inlineStr">
         <is>
-          <t>choerodon.code.microservice.route-management</t>
+          <t>choerodon.code.statistics.api-report</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>manager-service.route.list</t>
+          <t>manager-service.api.queryApiInvoke</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="F19" t="inlineStr">
         <is>
-          <t>choerodon.code.microservice.route-management</t>
+          <t>choerodon.code.statistics.api-report</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>manager-service.route.create</t>
+          <t>manager-service.api.queryServiceInvoke</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="F20" t="inlineStr">
         <is>
-          <t>choerodon.code.microservice.route-management</t>
+          <t>choerodon.code.statistics.menu-report</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
-        <is>
-          <t>manager-service.route.update</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="F21" t="inlineStr">
-        <is>
-          <t>choerodon.code.microservice.route-management</t>
-        </is>
-      </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>manager-service.route.delete</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="F22" t="inlineStr">
-        <is>
-          <t>choerodon.code.microservice.api-management</t>
-        </is>
-      </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>manager-service.api.queryTreeMenu</t>
-        </is>
-      </c>
-    </row>
-    <row r="23">
-      <c r="F23" t="inlineStr">
-        <is>
-          <t>choerodon.code.microservice.api-management</t>
-        </is>
-      </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>manager-service.api.queryPathDetail</t>
-        </is>
-      </c>
-    </row>
-    <row r="24">
-      <c r="F24" t="inlineStr">
-        <is>
-          <t>choerodon.code.api.api-test</t>
-        </is>
-      </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>manager-service.api.queryTreeMenu</t>
-        </is>
-      </c>
-    </row>
-    <row r="25">
-      <c r="F25" t="inlineStr">
-        <is>
-          <t>choerodon.code.api.api-test</t>
-        </is>
-      </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>manager-service.api.queryPathDetail</t>
-        </is>
-      </c>
-    </row>
-    <row r="26">
-      <c r="F26" t="inlineStr">
-        <is>
-          <t>choerodon.code.api.api-overview</t>
-        </is>
-      </c>
-      <c r="G26" t="inlineStr">
-        <is>
-          <t>manager-service.api.queryInstancesAndApiCount</t>
-        </is>
-      </c>
-    </row>
-    <row r="27">
-      <c r="F27" t="inlineStr">
-        <is>
-          <t>choerodon.code.api.api-overview</t>
-        </is>
-      </c>
-      <c r="G27" t="inlineStr">
-        <is>
-          <t>manager-service.api.queryApiInvoke</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="F28" t="inlineStr">
-        <is>
-          <t>choerodon.code.api.api-overview</t>
-        </is>
-      </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>manager-service.api.queryServiceInvoke</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="F29" t="inlineStr">
-        <is>
-          <t>choerodon.code.statistics.api-report</t>
-        </is>
-      </c>
-      <c r="G29" t="inlineStr">
-        <is>
-          <t>manager-service.api.queryInstancesAndApiCount</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="F30" t="inlineStr">
-        <is>
-          <t>choerodon.code.statistics.api-report</t>
-        </is>
-      </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>manager-service.api.queryApiInvoke</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="F31" t="inlineStr">
-        <is>
-          <t>choerodon.code.statistics.api-report</t>
-        </is>
-      </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>manager-service.api.queryServiceInvoke</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="F32" t="inlineStr">
-        <is>
-          <t>choerodon.code.statistics.menu-report</t>
-        </is>
-      </c>
-      <c r="G32" t="inlineStr">
         <is>
           <t>manager-service.statistic.queryMenuClick</t>
         </is>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -5,19 +5,19 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7785" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="17660" windowHeight="14540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
     <sheet name="IAM_MENU_B" sheetId="2" r:id="rId2"/>
     <sheet name="IAM_MENU_PERMISSION" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -313,14 +313,126 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -335,65 +447,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -405,68 +461,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -477,25 +477,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,157 +633,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,21 +668,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -698,8 +683,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -719,26 +704,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -768,141 +738,171 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="19" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -912,54 +912,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
+    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
+    <cellStyle name="输入" xfId="4" builtinId="20"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
+    <cellStyle name="货币" xfId="7" builtinId="4"/>
+    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
+    <cellStyle name="百分比" xfId="9" builtinId="5"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
+    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
+    <cellStyle name="计算" xfId="15" builtinId="22"/>
+    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
+    <cellStyle name="适中" xfId="17" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
+    <cellStyle name="好" xfId="19" builtinId="26"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
+    <cellStyle name="汇总" xfId="21" builtinId="25"/>
+    <cellStyle name="差" xfId="22" builtinId="27"/>
+    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
+    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
+    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
+    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
+    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
+    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
+    <cellStyle name="标题" xfId="33" builtinId="15"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
+    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
+    <cellStyle name="注释" xfId="37" builtinId="10"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
+    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
+    <cellStyle name="超链接" xfId="41" builtinId="8"/>
+    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
+    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
+    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1253,7 +1253,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:N13"/>
   <sheetViews>
@@ -1261,22 +1261,22 @@
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="11.6380952380952" customWidth="1"/>
-    <col min="4" max="4" width="18.9619047619048" customWidth="1"/>
-    <col min="5" max="5" width="11.6380952380952" customWidth="1"/>
-    <col min="6" max="6" width="13.4857142857143" customWidth="1"/>
-    <col min="7" max="7" width="15.0380952380952" customWidth="1"/>
+    <col min="1" max="3" width="11.6397058823529" customWidth="1"/>
+    <col min="4" max="4" width="18.9632352941176" customWidth="1"/>
+    <col min="5" max="5" width="11.6397058823529" customWidth="1"/>
+    <col min="6" max="6" width="13.4852941176471" customWidth="1"/>
+    <col min="7" max="7" width="15.0367647058824" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="18.9619047619048" customWidth="1"/>
-    <col min="10" max="10" width="14.1904761904762" customWidth="1"/>
-    <col min="11" max="11" width="18.9619047619048" customWidth="1"/>
-    <col min="12" max="12" width="19.2571428571429" customWidth="1"/>
-    <col min="13" max="13" width="18.7047619047619" customWidth="1"/>
-    <col min="14" max="14" width="19.3904761904762" customWidth="1"/>
-    <col min="15" max="15" width="18.9619047619048" customWidth="1"/>
-    <col min="16" max="1025" width="11.6380952380952" customWidth="1"/>
+    <col min="9" max="9" width="18.9632352941176" customWidth="1"/>
+    <col min="10" max="10" width="14.1911764705882" customWidth="1"/>
+    <col min="11" max="11" width="18.9632352941176" customWidth="1"/>
+    <col min="12" max="12" width="19.2573529411765" customWidth="1"/>
+    <col min="13" max="13" width="18.7058823529412" customWidth="1"/>
+    <col min="14" max="14" width="19.3897058823529" customWidth="1"/>
+    <col min="15" max="15" width="18.9632352941176" customWidth="1"/>
+    <col min="16" max="1025" width="11.6397058823529" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" ht="12.8" customHeight="1" spans="4:14">
@@ -1499,27 +1499,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
+      <selection activeCell="N16" sqref="$A16:$XFD16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
   <cols>
-    <col min="1" max="3" width="11.6380952380952" customWidth="1"/>
-    <col min="4" max="4" width="15.1904761904762" customWidth="1"/>
-    <col min="5" max="5" width="11.6380952380952" customWidth="1"/>
-    <col min="6" max="6" width="12.7714285714286" customWidth="1"/>
-    <col min="7" max="7" width="16.8857142857143" customWidth="1"/>
-    <col min="8" max="8" width="13.9142857142857" customWidth="1"/>
-    <col min="9" max="9" width="27.1238095238095" customWidth="1"/>
-    <col min="10" max="10" width="18.552380952381" customWidth="1"/>
-    <col min="11" max="11" width="16.5809523809524" customWidth="1"/>
-    <col min="12" max="12" width="19.2571428571429" customWidth="1"/>
-    <col min="13" max="1025" width="11.6380952380952" customWidth="1"/>
+    <col min="1" max="3" width="11.6397058823529" customWidth="1"/>
+    <col min="4" max="4" width="15.1911764705882" customWidth="1"/>
+    <col min="5" max="5" width="11.6397058823529" customWidth="1"/>
+    <col min="6" max="6" width="12.7720588235294" customWidth="1"/>
+    <col min="7" max="7" width="16.8823529411765" customWidth="1"/>
+    <col min="8" max="8" width="13.9117647058824" customWidth="1"/>
+    <col min="9" max="9" width="27.125" customWidth="1"/>
+    <col min="10" max="10" width="18.5514705882353" customWidth="1"/>
+    <col min="11" max="11" width="16.5808823529412" customWidth="1"/>
+    <col min="12" max="12" width="19.2573529411765" customWidth="1"/>
+    <col min="13" max="1025" width="11.6397058823529" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" ht="12.8" customHeight="1" spans="4:15">
@@ -1586,7 +1586,7 @@
         <v>46</v>
       </c>
       <c r="O8">
-        <v>4</v>
+        <v>20</v>
       </c>
     </row>
     <row r="9" spans="6:15">
@@ -1618,7 +1618,7 @@
         <v>51</v>
       </c>
       <c r="O9">
-        <v>1</v>
+        <v>10</v>
       </c>
     </row>
     <row r="10" spans="6:15">
@@ -1650,7 +1650,7 @@
         <v>55</v>
       </c>
       <c r="O10">
-        <v>2</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="6:15">
@@ -1714,7 +1714,7 @@
         <v>63</v>
       </c>
       <c r="O12">
-        <v>5</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="6:15">
@@ -1743,7 +1743,7 @@
         <v>67</v>
       </c>
       <c r="O13">
-        <v>5</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="6:15">
@@ -1775,7 +1775,7 @@
         <v>71</v>
       </c>
       <c r="O14">
-        <v>3</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="6:15">
@@ -1807,7 +1807,7 @@
         <v>75</v>
       </c>
       <c r="O15">
-        <v>4</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
@@ -1821,7 +1821,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr/>
   <dimension ref="D7:G20"/>
   <sheetViews>
@@ -1829,14 +1829,14 @@
       <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="11.6380952380952" customWidth="1"/>
-    <col min="4" max="4" width="23.752380952381" customWidth="1"/>
-    <col min="5" max="5" width="11.6380952380952" customWidth="1"/>
+    <col min="1" max="3" width="11.6397058823529" customWidth="1"/>
+    <col min="4" max="4" width="23.75" customWidth="1"/>
+    <col min="5" max="5" width="11.6397058823529" customWidth="1"/>
     <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="18.9619047619048" customWidth="1"/>
-    <col min="8" max="1025" width="11.6380952380952" customWidth="1"/>
+    <col min="7" max="7" width="18.9632352941176" customWidth="1"/>
+    <col min="8" max="1025" width="11.6397058823529" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" ht="12.8" customHeight="1" spans="4:7">

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowWidth="17660" windowHeight="14540" tabRatio="500" activeTab="1"/>
+    <workbookView windowHeight="14540" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -139,7 +139,7 @@
     <t>ICON</t>
   </si>
   <si>
-    <t>@SORT</t>
+    <t>SORT</t>
   </si>
   <si>
     <t>choerodon.code.microservice</t>
@@ -313,6 +313,13 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -334,6 +341,26 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -342,6 +369,28 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -350,30 +399,49 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -385,46 +453,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -437,36 +467,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -477,13 +477,133 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,37 +615,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -537,43 +633,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,79 +657,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -674,8 +674,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,9 +706,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -724,17 +735,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,138 +771,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="10" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1503,8 +1503,8 @@
   <sheetPr/>
   <dimension ref="D7:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="N1" workbookViewId="0">
-      <selection activeCell="N16" sqref="$A16:$XFD16"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="O7" sqref="O7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -313,6 +313,25 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -320,9 +339,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -334,22 +353,51 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -361,36 +409,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -401,15 +419,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -424,17 +441,16 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -445,28 +461,12 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -477,13 +477,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -495,19 +513,115 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -519,19 +633,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -543,121 +651,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -676,15 +676,6 @@
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -706,11 +697,9 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -735,6 +724,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -771,138 +771,138 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="29" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1503,8 +1503,8 @@
   <sheetPr/>
   <dimension ref="D7:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="O7" sqref="O7"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
@@ -1682,7 +1682,7 @@
         <v>59</v>
       </c>
       <c r="O11">
-        <v>4</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="6:15">
@@ -1714,7 +1714,7 @@
         <v>63</v>
       </c>
       <c r="O12">
-        <v>30</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="6:15">

--- a/src/main/resources/script/front/micro-service-init-data.xlsx
+++ b/src/main/resources/script/front/micro-service-init-data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView windowHeight="14540" tabRatio="500" activeTab="1"/>
+    <workbookView windowWidth="19335" windowHeight="7515" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="IAM_PERMISSION" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="93">
   <si>
     <t>IAM_PERMISSION</t>
   </si>
@@ -290,6 +290,9 @@
   </si>
   <si>
     <t>manager-service.api.queryServiceInvoke</t>
+  </si>
+  <si>
+    <t>manager-service.api.resources</t>
   </si>
   <si>
     <t>manager-service.statistic.queryMenuClick</t>
@@ -312,6 +315,18 @@
       <charset val="1"/>
     </font>
     <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -319,22 +334,33 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <charset val="134"/>
-    </font>
-    <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -353,6 +379,74 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -363,54 +457,6 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -424,49 +470,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -477,19 +480,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -501,79 +630,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -585,79 +660,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -668,48 +671,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -730,11 +691,68 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
       <bottom style="double">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -753,156 +771,141 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -912,54 +915,54 @@
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="1" builtinId="52"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="2" builtinId="42"/>
-    <cellStyle name="强调文字颜色 4" xfId="3" builtinId="41"/>
-    <cellStyle name="输入" xfId="4" builtinId="20"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="5" builtinId="39"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="6" builtinId="38"/>
-    <cellStyle name="货币" xfId="7" builtinId="4"/>
-    <cellStyle name="强调文字颜色 3" xfId="8" builtinId="37"/>
-    <cellStyle name="百分比" xfId="9" builtinId="5"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="10" builtinId="36"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="11" builtinId="48"/>
-    <cellStyle name="强调文字颜色 2" xfId="12" builtinId="33"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="13" builtinId="32"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="14" builtinId="44"/>
-    <cellStyle name="计算" xfId="15" builtinId="22"/>
-    <cellStyle name="强调文字颜色 1" xfId="16" builtinId="29"/>
-    <cellStyle name="适中" xfId="17" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="18" builtinId="46"/>
-    <cellStyle name="好" xfId="19" builtinId="26"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="20" builtinId="30"/>
-    <cellStyle name="汇总" xfId="21" builtinId="25"/>
-    <cellStyle name="差" xfId="22" builtinId="27"/>
-    <cellStyle name="检查单元格" xfId="23" builtinId="23"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
     <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="标题 1" xfId="25" builtinId="16"/>
-    <cellStyle name="解释性文本" xfId="26" builtinId="53"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="27" builtinId="34"/>
-    <cellStyle name="标题 4" xfId="28" builtinId="19"/>
-    <cellStyle name="货币[0]" xfId="29" builtinId="7"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="30" builtinId="43"/>
-    <cellStyle name="千位分隔" xfId="31" builtinId="3"/>
-    <cellStyle name="已访问的超链接" xfId="32" builtinId="9"/>
-    <cellStyle name="标题" xfId="33" builtinId="15"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="34" builtinId="35"/>
-    <cellStyle name="警告文本" xfId="35" builtinId="11"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="36" builtinId="40"/>
-    <cellStyle name="注释" xfId="37" builtinId="10"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="38" builtinId="50"/>
-    <cellStyle name="强调文字颜色 5" xfId="39" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="40" builtinId="51"/>
-    <cellStyle name="超链接" xfId="41" builtinId="8"/>
-    <cellStyle name="千位分隔[0]" xfId="42" builtinId="6"/>
-    <cellStyle name="标题 2" xfId="43" builtinId="17"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
     <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="标题 3" xfId="45" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
     <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="47" builtinId="31"/>
-    <cellStyle name="链接单元格" xfId="48" builtinId="24"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1253,30 +1256,30 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:N13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="11.6397058823529" customWidth="1"/>
-    <col min="4" max="4" width="18.9632352941176" customWidth="1"/>
-    <col min="5" max="5" width="11.6397058823529" customWidth="1"/>
-    <col min="6" max="6" width="13.4852941176471" customWidth="1"/>
-    <col min="7" max="7" width="15.0367647058824" customWidth="1"/>
+    <col min="1" max="3" width="11.6380952380952" customWidth="1"/>
+    <col min="4" max="4" width="18.9619047619048" customWidth="1"/>
+    <col min="5" max="5" width="11.6380952380952" customWidth="1"/>
+    <col min="6" max="6" width="38.7142857142857" customWidth="1"/>
+    <col min="7" max="7" width="33.7142857142857" customWidth="1"/>
     <col min="8" max="8" width="17" customWidth="1"/>
-    <col min="9" max="9" width="18.9632352941176" customWidth="1"/>
-    <col min="10" max="10" width="14.1911764705882" customWidth="1"/>
-    <col min="11" max="11" width="18.9632352941176" customWidth="1"/>
-    <col min="12" max="12" width="19.2573529411765" customWidth="1"/>
-    <col min="13" max="13" width="18.7058823529412" customWidth="1"/>
-    <col min="14" max="14" width="19.3897058823529" customWidth="1"/>
-    <col min="15" max="15" width="18.9632352941176" customWidth="1"/>
-    <col min="16" max="1025" width="11.6397058823529" customWidth="1"/>
+    <col min="9" max="9" width="18.9619047619048" customWidth="1"/>
+    <col min="10" max="10" width="14.1904761904762" customWidth="1"/>
+    <col min="11" max="11" width="18.9619047619048" customWidth="1"/>
+    <col min="12" max="12" width="19.2571428571429" customWidth="1"/>
+    <col min="13" max="13" width="18.7047619047619" customWidth="1"/>
+    <col min="14" max="14" width="19.3904761904762" customWidth="1"/>
+    <col min="15" max="15" width="18.9619047619048" customWidth="1"/>
+    <col min="16" max="1025" width="11.6380952380952" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" ht="12.8" customHeight="1" spans="4:14">
@@ -1499,27 +1502,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
   <dimension ref="D7:O15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="3" width="11.6397058823529" customWidth="1"/>
-    <col min="4" max="4" width="15.1911764705882" customWidth="1"/>
-    <col min="5" max="5" width="11.6397058823529" customWidth="1"/>
-    <col min="6" max="6" width="12.7720588235294" customWidth="1"/>
-    <col min="7" max="7" width="16.8823529411765" customWidth="1"/>
-    <col min="8" max="8" width="13.9117647058824" customWidth="1"/>
-    <col min="9" max="9" width="27.125" customWidth="1"/>
-    <col min="10" max="10" width="18.5514705882353" customWidth="1"/>
-    <col min="11" max="11" width="16.5808823529412" customWidth="1"/>
-    <col min="12" max="12" width="19.2573529411765" customWidth="1"/>
-    <col min="13" max="1025" width="11.6397058823529" customWidth="1"/>
+    <col min="1" max="3" width="11.6380952380952" customWidth="1"/>
+    <col min="4" max="4" width="15.1904761904762" customWidth="1"/>
+    <col min="5" max="5" width="11.6380952380952" customWidth="1"/>
+    <col min="6" max="6" width="45.2857142857143" customWidth="1"/>
+    <col min="7" max="7" width="16.8857142857143" customWidth="1"/>
+    <col min="8" max="8" width="13.9142857142857" customWidth="1"/>
+    <col min="9" max="9" width="27.1238095238095" customWidth="1"/>
+    <col min="10" max="10" width="18.552380952381" customWidth="1"/>
+    <col min="11" max="11" width="16.5809523809524" customWidth="1"/>
+    <col min="12" max="12" width="19.2571428571429" customWidth="1"/>
+    <col min="13" max="1025" width="11.6380952380952" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" ht="12.8" customHeight="1" spans="4:15">
@@ -1821,22 +1824,22 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="D7:G20"/>
+  <dimension ref="D7:G21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelCol="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelCol="6"/>
   <cols>
-    <col min="1" max="3" width="11.6397058823529" customWidth="1"/>
-    <col min="4" max="4" width="23.75" customWidth="1"/>
-    <col min="5" max="5" width="11.6397058823529" customWidth="1"/>
-    <col min="6" max="6" width="17" customWidth="1"/>
-    <col min="7" max="7" width="18.9632352941176" customWidth="1"/>
-    <col min="8" max="1025" width="11.6397058823529" customWidth="1"/>
+    <col min="1" max="3" width="11.6380952380952" customWidth="1"/>
+    <col min="4" max="4" width="23.752380952381" customWidth="1"/>
+    <col min="5" max="5" width="11.6380952380952" customWidth="1"/>
+    <col min="6" max="6" width="45" customWidth="1"/>
+    <col min="7" max="7" width="43" customWidth="1"/>
+    <col min="8" max="1025" width="11.6380952380952" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="7" ht="12.8" customHeight="1" spans="4:7">
@@ -1951,10 +1954,18 @@
     </row>
     <row r="20" spans="6:7">
       <c r="F20" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="G20" t="s">
         <v>91</v>
+      </c>
+    </row>
+    <row r="21" spans="6:7">
+      <c r="F21" t="s">
+        <v>72</v>
+      </c>
+      <c r="G21" t="s">
+        <v>92</v>
       </c>
     </row>
   </sheetData>
